--- a/Sufficient data WITH_PO/B09JZGTYXJ_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B09JZGTYXJ_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -598,7 +598,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
